--- a/newPAPPL/test2.xlsx
+++ b/newPAPPL/test2.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Libellé</t>
   </si>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">   Éric CODEVERTE</t>
   </si>
   <si>
-    <t>Dear, null</t>
+    <t>Dear, Gabriel DUPONT</t>
   </si>
   <si>
     <t>Deadline 1</t>
@@ -174,13 +174,10 @@
     <t>Deadline 2</t>
   </si>
   <si>
-    <t>Deadline 3</t>
-  </si>
-  <si>
-    <t>Deadline 4</t>
-  </si>
-  <si>
-    <t>holi</t>
+    <t>dette5</t>
+  </si>
+  <si>
+    <t>Nantes le, 21/12/2020</t>
   </si>
 </sst>
 </file>
@@ -576,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -709,11 +706,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="true" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="true"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A6:I53"/>
+  <dimension ref="A6:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
@@ -1057,11 +1055,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="30.85546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.7109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="8.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:5" ht="34.5">
@@ -1088,9 +1086,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="E10" s="4" t="s">
-        <v>6</v>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25">
@@ -1131,7 +1129,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="10" t="s">
@@ -1144,11 +1142,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="13"/>
-      <c r="B23" s="38"/>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
       <c r="C23" s="39"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="15">
-        <v>2500</v>
+      <c r="E23" t="n" s="56">
+        <v>400.0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1172,9 +1172,8 @@
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="20">
-        <f>E23-D23</f>
-        <v>2500</v>
+      <c r="E26" t="n" s="56">
+        <v>400.0</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1"/>
@@ -1195,150 +1194,134 @@
       <c r="A29" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="51"/>
+      <c r="D29" t="n" s="51">
+        <v>43893.0</v>
+      </c>
       <c r="E29" t="n" s="52">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="51"/>
+      <c r="D30" t="n" s="51">
+        <v>43893.0</v>
+      </c>
       <c r="E30" t="n" s="52">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" t="n" s="55">
         <v>400.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" t="n" s="52">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" t="n" s="52">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" t="n" s="55">
-        <v>1600.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="33" customHeight="1"/>
-    <row r="36" spans="1:9">
-      <c r="A36" s="8" t="s">
+    <row r="33" spans="1:9" ht="33" customHeight="1"/>
+    <row r="34" spans="1:9">
+      <c r="A34" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="24" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="24" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="8" t="s">
+      <c r="A38" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
-      <c r="A41" s="24" t="s">
+    <row r="39" spans="1:5" ht="15.75">
+      <c r="A39" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="8" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="8" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="8" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="A48" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="4:5">
-      <c r="D53" s="28" t="s">
+    <row r="51" spans="4:5">
+      <c r="D51" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E53" s="29"/>
+      <c r="E51" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/newPAPPL/test2.xlsx
+++ b/newPAPPL/test2.xlsx
@@ -174,7 +174,7 @@
     <t>Deadline 2</t>
   </si>
   <si>
-    <t>dette5</t>
+    <t>dette3</t>
   </si>
   <si>
     <t>Nantes le, 21/12/2020</t>
